--- a/기획재정부.xlsx
+++ b/기획재정부.xlsx
@@ -475,196 +475,196 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>「월간 재정동향」 2024년 10월호 발간</t>
+          <t>배달플랫폼-입점업체 상생협의체 제7차 회의 개최</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>재정건전성과</t>
+          <t>정책조정총괄과</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024.10.10.</t>
+          <t>2024.10.14.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027308</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027327&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027308&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027327&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[보도참고] 한국, FTSE Russell 세계국채지수(WGBI) 편입</t>
+          <t>미래세대에게 희망을, 성공적 취업을 위한 알찬 청년인턴 프로그램 운영</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국채과</t>
+          <t>청년정책과</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024.10.09.</t>
+          <t>2024.10.14.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027295</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027326</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027295&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027326&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>배달플랫폼-입점업체 상생협의체 제6차 회의 개최</t>
+          <t>녹색기후기금(GCF) 첫 한국인 국장(Director) 부임</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>정책조정총괄과</t>
+          <t>녹색기후기획과</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024.10.08.</t>
+          <t>2024.10.14.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027305&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027325</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027305&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027325&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>제9차 부동산 시장 및 공급상황 점검 TF 개최</t>
+          <t>「월간 재정동향」 2024년 10월호 발간</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>경제분석과</t>
+          <t>재정건전성과</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024.10.08.</t>
+          <t>2024.10.10.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027292</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027308</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027292&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027308&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>제16회 국제금융기구 채용설명회 사전 등록 및 채용 면접 신청 안내</t>
+          <t>[보도참고] 한국, FTSE Russell 세계국채지수(WGBI) 편입</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국제기구과</t>
+          <t>국채과</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024.10.07.</t>
+          <t>2024.10.09.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027278</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027295</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027278&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027295&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>한-필리핀 정상회담 계기 대외경제협력기금으로 필리핀 초대형 인프라 사업 추진에 합의</t>
+          <t>배달플랫폼-입점업체 상생협의체 제6차 회의 개최</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>개발전략과</t>
+          <t>정책조정총괄과</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024.10.07.</t>
+          <t>2024.10.08.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027276</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027305&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027276&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027305&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>중장기전략위원회 주최 "미래전략포럼"에서 저탄소 경제 이행을 위한 정책 과제 논의</t>
+          <t>제9차 부동산 시장 및 공급상황 점검 TF 개최</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>미래전략과</t>
+          <t>경제분석과</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024.10.07.</t>
+          <t>2024.10.08.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027281</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027292</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027281&amp;fileSn=5</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027292&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>세계은행, 아시아개발은행 등 다자개발은행 조달설명회 참가 기업 모집</t>
+          <t>제16회 국제금융기구 채용설명회 사전 등록 및 채용 면접 신청 안내</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -679,213 +679,213 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027285</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027278</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027285&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027278&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>김윤상 2차관, 글로벌 물류 허브 도약의 핵심인 부산 신항, 가덕도 신공항 현장 방문</t>
+          <t>한-필리핀 정상회담 계기 대외경제협력기금으로 필리핀 초대형 인프라 사업 추진에 합의</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>재정정책협력과</t>
+          <t>개발전략과</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024.10.04.</t>
+          <t>2024.10.07.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027271</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027276</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027271&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027276&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>일본 신임 내각 구성에 따른 경제협력 방향 및 최근 중국 경제 동향 논의</t>
+          <t>중장기전략위원회 주최 "미래전략포럼"에서 저탄소 경제 이행을 위한 정책 과제 논의</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>대외경제총괄과</t>
+          <t>미래전략과</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024.10.04.</t>
+          <t>2024.10.07.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027280</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027281</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=8ghY1yJ1bjJJPiaI+ALtsRzw.node50?atchFileId=ATCH_000000000027280&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do;jsessionid=NpxLJBc1uq9CI7BTwMJtRmh9.node60?atchFileId=ATCH_000000000027281&amp;fileSn=5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>소상공인 지원대책, 현장에서 끝까지 챙긴다</t>
+          <t>세계은행, 아시아개발은행 등 다자개발은행 조달설명회 참가 기업 모집</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>민생안정지원단</t>
+          <t>국제기구과</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024.10.04.</t>
+          <t>2024.10.07.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027270</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027285</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027270&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027285&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>공적개발원조 유무상 통합정책협의를 통한 한-라오스 개발협력 강화</t>
+          <t>김윤상 2차관, 글로벌 물류 허브 도약의 핵심인 부산 신항, 가덕도 신공항 현장 방문</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>개발전략과</t>
+          <t>재정정책협력과</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024.10.03.</t>
+          <t>2024.10.04.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027267</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027271</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027267&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027271&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10월 국고채 경쟁입찰 8.0조원 발행 계획</t>
+          <t>일본 신임 내각 구성에 따른 경제협력 방향 및 최근 중국 경제 동향 논의</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>국채과</t>
+          <t>대외경제총괄과</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024.10.02.</t>
+          <t>2024.10.04.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027257</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027280</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027257&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027280&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>대외 공급망 안정화에 민관이 머리 맞댄다</t>
+          <t>소상공인 지원대책, 현장에서 끝까지 챙긴다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>통상정책과</t>
+          <t>민생안정지원단</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024.10.02.</t>
+          <t>2024.10.04.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027263</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027270</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027263&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027270&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>중동 사태 관련 관계기관 합동 시장상황점검회의 개최</t>
+          <t>공적개발원조 유무상 통합정책협의를 통한 한-라오스 개발협력 강화</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경제분석과</t>
+          <t>개발전략과</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024.10.02.</t>
+          <t>2024.10.03.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027264&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027267</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027264&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027267&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>제17기 행복공감봉사단 4차 봉사활동</t>
+          <t>10월 국고채 경쟁입찰 8.0조원 발행 계획</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>복권총괄과</t>
+          <t>국채과</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -895,24 +895,24 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027252&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027257</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027252&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027257&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>공사비 안정화 방안 발표</t>
+          <t>대외 공급망 안정화에 민관이 머리 맞댄다</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>지역경제정책과</t>
+          <t>통상정책과</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -922,24 +922,24 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027256</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027263</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027256&amp;fileSn=4</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027263&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>민간투자 활성화방안</t>
+          <t>중동 사태 관련 관계기관 합동 시장상황점검회의 개최</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>민간투자정책과</t>
+          <t>경제분석과</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -949,24 +949,24 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027260</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027264&amp;fileSn=2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027260&amp;fileSn=4</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027264&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>'24.9월 소비자물가 동향</t>
+          <t>제17기 행복공감봉사단 4차 봉사활동</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>물가정책과</t>
+          <t>복권총괄과</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -976,24 +976,24 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027255</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027252&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027255&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027252&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>선진 벤처투자 시장 도약 방안 발표</t>
+          <t>공사비 안정화 방안 발표</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>정책조정총괄과</t>
+          <t>지역경제정책과</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1003,24 +1003,24 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027254</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027256</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027254&amp;fileSn=4</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027256&amp;fileSn=4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>경제관계장관회의 겸 투자활성화장관회의 개최</t>
+          <t>민간투자 활성화방안</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>정책조정총괄과</t>
+          <t>민간투자정책과</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1030,105 +1030,105 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027239</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027260</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027239&amp;fileSn=20</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027260&amp;fileSn=4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>미래 준비를 위해 청년들의 인식과 고민에 대해 소통</t>
+          <t>'24.9월 소비자물가 동향</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>미래전략과</t>
+          <t>물가정책과</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024.09.30.</t>
+          <t>2024.10.02.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027248</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027255</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027248&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027255&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>최상목 부총리‧이창용 총재, 한국경제의 구조개혁을 주제로 타운홀 미팅 개최</t>
+          <t>선진 벤처투자 시장 도약 방안 발표</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>거시정책과</t>
+          <t>정책조정총괄과</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024.09.30.</t>
+          <t>2024.10.02.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027247</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027254</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027247&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027254&amp;fileSn=4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>'24.8월 국세수입 현황</t>
+          <t>경제관계장관회의 겸 투자활성화장관회의 개최</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>조세분석과</t>
+          <t>정책조정총괄과</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024.09.30.</t>
+          <t>2024.10.02.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027244</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027239</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027244&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027239&amp;fileSn=20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10월 개인투자용 국채 1,500억원 발행 계획</t>
+          <t>미래 준비를 위해 청년들의 인식과 고민에 대해 소통</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>국채과</t>
+          <t>미래전략과</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1138,24 +1138,24 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027235</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027248</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027235&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027248&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>'24.8월 산업활동동향 및 평가</t>
+          <t>최상목 부총리‧이창용 총재, 한국경제의 구조개혁을 주제로 타운홀 미팅 개최</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>경제분석과</t>
+          <t>거시정책과</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1165,24 +1165,24 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027234</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027247</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027234&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027247&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023년 대외경제협력기금(EDCF) 평가 연차보고서 발간</t>
+          <t>'24.8월 국세수입 현황</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>개발전략과</t>
+          <t>조세분석과</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1192,132 +1192,132 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027233</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027244</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027233&amp;fileSn=3</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027244&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>한-영, 양국 간 경제협력을 위한 새로운 대화채널 개시</t>
+          <t>10월 개인투자용 국채 1,500억원 발행 계획</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>금융협력과</t>
+          <t>국채과</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024.09.29.</t>
+          <t>2024.09.30.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027223</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027235</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027223&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027235&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>최상목 부총리, S&amp;P 연레협의단과 만나 한국 경제상황과 정책방향 설명</t>
+          <t>'24.8월 산업활동동향 및 평가</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>국제금융과</t>
+          <t>경제분석과</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024.09.27.</t>
+          <t>2024.09.30.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027232&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027234</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027232&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027234&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>「진주 원스톱 수출 119」 , 수출기업 간담회와 수출 금융 지원 상담 진행</t>
+          <t>2023년 대외경제협력기금(EDCF) 평가 연차보고서 발간</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>금융재정지원팀</t>
+          <t>개발전략과</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024.09.27.</t>
+          <t>2024.09.30.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027198&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027233</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027198&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027233&amp;fileSn=3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>제33차 물가관계차관회의 개최</t>
+          <t>한-영, 양국 간 경제협력을 위한 새로운 대화채널 개시</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>물가정책과</t>
+          <t>금융협력과</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024.09.27.</t>
+          <t>2024.09.29.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027220</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027223</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027220&amp;fileSn=3</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027223&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>제12회 한-OECD 국제재정포럼 개최</t>
+          <t>최상목 부총리, S&amp;P 연레협의단과 만나 한국 경제상황과 정책방향 설명</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>예산관리과</t>
+          <t>국제금융과</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1327,186 +1327,186 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027217</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027232&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027217&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027232&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>김범석 1차관, 아시아인프라투자은행(AIIB) 연차총회 참석</t>
+          <t>「진주 원스톱 수출 119」 , 수출기업 간담회와 수출 금융 지원 상담 진행</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>국제기구과</t>
+          <t>금융재정지원팀</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024.09.26.</t>
+          <t>2024.09.27.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027181</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027198&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027181&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027198&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>’24.9월 국고채 「모집 방식 비경쟁인수」 발행 미실시</t>
+          <t>제33차 물가관계차관회의 개최</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>국채과</t>
+          <t>물가정책과</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024.09.26.</t>
+          <t>2024.09.27.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027197</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027220</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027197&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027220&amp;fileSn=3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>금년 국세수입은 예산대비 △29.6조원 예상, 가용재원 등 활용해 차질없는 재정집행 추진</t>
+          <t>제12회 한-OECD 국제재정포럼 개최</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>조세분석과</t>
+          <t>예산관리과</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024.09.26.</t>
+          <t>2024.09.27.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027215</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027217</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027215&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027217&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[보도참고] 경제협력개발기구, 9월 중간 경제전망 발표</t>
+          <t>김범석 1차관, 아시아인프라투자은행(AIIB) 연차총회 참석</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>경제분석과</t>
+          <t>국제기구과</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024.09.25.</t>
+          <t>2024.09.26.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027213&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027181</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027213&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027181&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>일가정 양립, 기업이 앞장서고 정부가 함께한다</t>
+          <t>’24.9월 국고채 「모집 방식 비경쟁인수」 발행 미실시</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>인구경제과</t>
+          <t>국채과</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024.09.25.</t>
+          <t>2024.09.26.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027212</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027197</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027212&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027197&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>모로코와 대외경제협력기금 정책협의 등을 통해 경제협력 강화</t>
+          <t>금년 국세수입은 예산대비 △29.6조원 예상, 가용재원 등 활용해 차질없는 재정집행 추진</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>개발사업과</t>
+          <t>조세분석과</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024.09.25.</t>
+          <t>2024.09.26.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027195</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027215</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027195&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027215&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[보도참고] 아시아개발은행(ADB), '24.9월 아시아경제전망(ADO) 발표</t>
+          <t>[보도참고] 경제협력개발기구, 9월 중간 경제전망 발표</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>국제기구과</t>
+          <t>경제분석과</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1516,309 +1516,309 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027207&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027213&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027207&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027213&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>배달플랫폼-입점업체 상생협의체 제5차 회의 개최</t>
+          <t>일가정 양립, 기업이 앞장서고 정부가 함께한다</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>정책조정총괄과</t>
+          <t>인구경제과</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024.09.24.</t>
+          <t>2024.09.25.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027194&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027212</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027194&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027212&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>최상목 부총리, 경제단체장 간담회 개최</t>
+          <t>모로코와 대외경제협력기금 정책협의 등을 통해 경제협력 강화</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>정책조정총괄과</t>
+          <t>개발사업과</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024.09.24.</t>
+          <t>2024.09.25.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027193</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027195</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027193&amp;fileSn=4</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027195&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>김범석 제1차관, 「글로벌 파트너십 이행점검단」 4차 회의 주재</t>
+          <t>[보도참고] 아시아개발은행(ADB), '24.9월 아시아경제전망(ADO) 발표</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>대외경제총괄과</t>
+          <t>국제기구과</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024.09.23.</t>
+          <t>2024.09.25.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027176</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027207&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027176&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027207&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>한-체코 재무장관 양자면담 결과</t>
+          <t>배달플랫폼-입점업체 상생협의체 제5차 회의 개최</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>국제경제과</t>
+          <t>정책조정총괄과</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024.09.22.</t>
+          <t>2024.09.24.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027186</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027194&amp;fileSn=1</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027186&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027194&amp;fileSn=1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>대외경제협력기금(EDCF)-시민사회 간담회 개최</t>
+          <t>최상목 부총리, 경제단체장 간담회 개최</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>개발사업과</t>
+          <t>정책조정총괄과</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024.09.22.</t>
+          <t>2024.09.24.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027185</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027193</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027185&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027193&amp;fileSn=4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>제8차 부동산 시장 및 공급상황 점검 TF 개최</t>
+          <t>김범석 제1차관, 「글로벌 파트너십 이행점검단」 4차 회의 주재</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>경제분석과</t>
+          <t>대외경제총괄과</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024.09.20.</t>
+          <t>2024.09.23.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027184</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027176</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027184&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027176&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>제1차 비축전문위원회 개최</t>
+          <t>한-체코 재무장관 양자면담 결과</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>공급망대응담당관</t>
+          <t>국제경제과</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024.09.20.</t>
+          <t>2024.09.22.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027182</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027186</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027182&amp;fileSn=4</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027186&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>거시경제금융회의 개최</t>
+          <t>대외경제협력기금(EDCF)-시민사회 간담회 개최</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>자금시장과</t>
+          <t>개발사업과</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024.09.19.</t>
+          <t>2024.09.22.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027167</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027185</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027167&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027185&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>홍콩 소재 주요 글로벌 금융기관 대상 국채 투자 및 외환시장 구조개선 설명회 개최</t>
+          <t>제8차 부동산 시장 및 공급상황 점검 TF 개최</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>국채과</t>
+          <t>경제분석과</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024.09.18.</t>
+          <t>2024.09.20.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027170</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027184</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027170&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027184&amp;fileSn=2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>국제금융기구 현안점검회의 개최</t>
+          <t>제1차 비축전문위원회 개최</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>국제기구과</t>
+          <t>공급망대응담당관</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024.09.13.</t>
+          <t>2024.09.20.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027160</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027182</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027160&amp;fileSn=2</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027182&amp;fileSn=4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[보도참고] 2024년 9월 최근 경제동향</t>
+          <t>거시경제금융회의 개최</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>경제분석과</t>
+          <t>자금시장과</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024.09.13.</t>
+          <t>2024.09.19.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/cmm/fms/FileDown.do?atchFileId=ATCH_000000000027151&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/cmm/fms/AtchZipFileDown.do?atchFileId=ATCH_000000000027167</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027151&amp;fileSn=1</t>
+          <t>https://www.moef.go.kr/com/synap/synapView.do?atchFileId=ATCH_000000000027167&amp;fileSn=2</t>
         </is>
       </c>
     </row>
